--- a/documentos/JSON_CambioDomicilio.xlsx
+++ b/documentos/JSON_CambioDomicilio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://confederacion-my.sharepoint.com/personal/fvera_confecamaras_org_co/Documents/RUES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\VisionIngenieria\ProyectoCamara\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1168" documentId="8_{917681DB-CC9C-4AC5-82BC-6168435C40CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44EC7FAB-8B43-4F68-BC38-E5B4A9F5E039}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{34EB36C0-82BD-4B4C-9D95-08F68771BCB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama" sheetId="4" r:id="rId1"/>
@@ -3708,7 +3707,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4026,9 +4025,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4036,6 +4032,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4046,19 +4054,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A8DC0469-D728-46DF-8982-C106F0E72F98}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4418,14 +4417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67210C2E-A19B-41E3-9C78-DB3DBC83AC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
@@ -4440,18 +4439,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38619E4A-956E-4FED-97BB-DD24B753775A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
@@ -4462,13 +4461,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>1208</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -4600,7 +4599,7 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>416</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4630,7 +4629,7 @@
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>878</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4861,7 +4860,7 @@
       <c r="D29" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="50" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4878,7 +4877,7 @@
       <c r="D30" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4893,7 +4892,7 @@
       <c r="D31" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -4908,7 +4907,7 @@
       <c r="D32" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -4923,7 +4922,7 @@
       <c r="D33" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -4938,7 +4937,7 @@
       <c r="D34" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -4953,7 +4952,7 @@
       <c r="D35" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -4968,7 +4967,7 @@
       <c r="D36" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="50"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -4983,7 +4982,7 @@
       <c r="D37" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -4998,7 +4997,7 @@
       <c r="D38" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -5013,7 +5012,7 @@
       <c r="D39" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -5028,7 +5027,7 @@
       <c r="D40" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="50" t="s">
         <v>889</v>
       </c>
     </row>
@@ -5045,7 +5044,7 @@
       <c r="D41" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -5060,7 +5059,7 @@
       <c r="D42" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -5075,7 +5074,7 @@
       <c r="D43" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -5090,7 +5089,7 @@
       <c r="D44" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -5105,7 +5104,7 @@
       <c r="D45" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -5120,7 +5119,7 @@
       <c r="D46" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -5135,7 +5134,7 @@
       <c r="D47" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -5150,7 +5149,7 @@
       <c r="D48" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E48" s="42"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -5165,7 +5164,7 @@
       <c r="D49" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E49" s="42"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -5301,7 +5300,7 @@
       <c r="B59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="42" t="s">
         <v>1206</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -5718,49 +5717,49 @@
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>948</v>
       </c>
-      <c r="D88" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="E88" s="44"/>
+      <c r="D88" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="43"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="43" t="s">
         <v>949</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="E89" s="44"/>
+      <c r="D89" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E89" s="43"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="43" t="s">
         <v>950</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="E90" s="44"/>
+      <c r="D90" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
@@ -6283,7 +6282,7 @@
       <c r="B127" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C127" s="45" t="s">
+      <c r="C127" s="44" t="s">
         <v>920</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -6298,7 +6297,7 @@
       <c r="B128" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="44" t="s">
         <v>954</v>
       </c>
       <c r="D128" s="5" t="s">
@@ -6603,7 +6602,7 @@
       <c r="B149" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C149" s="45" t="s">
+      <c r="C149" s="44" t="s">
         <v>960</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -6678,7 +6677,7 @@
       <c r="B154" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C154" s="45" t="s">
+      <c r="C154" s="44" t="s">
         <v>963</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -6693,7 +6692,7 @@
       <c r="B155" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C155" s="45" t="s">
+      <c r="C155" s="44" t="s">
         <v>964</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -6708,7 +6707,7 @@
       <c r="B156" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C156" s="45" t="s">
+      <c r="C156" s="44" t="s">
         <v>965</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -7013,7 +7012,7 @@
       <c r="B177" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C177" s="45" t="s">
+      <c r="C177" s="44" t="s">
         <v>960</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -7306,7 +7305,7 @@
       <c r="C197" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="D197" s="45" t="s">
+      <c r="D197" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E197" s="5"/>
@@ -7321,7 +7320,7 @@
       <c r="C198" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="D198" s="45" t="s">
+      <c r="D198" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E198" s="5"/>
@@ -7336,7 +7335,7 @@
       <c r="C199" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="D199" s="45" t="s">
+      <c r="D199" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E199" s="5"/>
@@ -7351,7 +7350,7 @@
       <c r="C200" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="D200" s="45" t="s">
+      <c r="D200" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E200" s="5"/>
@@ -7366,7 +7365,7 @@
       <c r="C201" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="D201" s="45" t="s">
+      <c r="D201" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E201" s="5"/>
@@ -7381,7 +7380,7 @@
       <c r="C202" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="D202" s="45" t="s">
+      <c r="D202" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E202" s="5"/>
@@ -7396,7 +7395,7 @@
       <c r="C203" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="D203" s="45" t="s">
+      <c r="D203" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E203" s="5"/>
@@ -7411,7 +7410,7 @@
       <c r="C204" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="D204" s="45" t="s">
+      <c r="D204" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E204" s="5"/>
@@ -7426,7 +7425,7 @@
       <c r="C205" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="D205" s="45" t="s">
+      <c r="D205" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E205" s="5"/>
@@ -7441,7 +7440,7 @@
       <c r="C206" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="D206" s="45" t="s">
+      <c r="D206" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E206" s="5"/>
@@ -7456,7 +7455,7 @@
       <c r="C207" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="D207" s="45" t="s">
+      <c r="D207" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E207" s="5"/>
@@ -7471,7 +7470,7 @@
       <c r="C208" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D208" s="45" t="s">
+      <c r="D208" s="44" t="s">
         <v>400</v>
       </c>
       <c r="E208" s="5"/>
@@ -7483,10 +7482,10 @@
       <c r="B209" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C209" s="45" t="s">
+      <c r="C209" s="44" t="s">
         <v>960</v>
       </c>
-      <c r="D209" s="45" t="s">
+      <c r="D209" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E209" s="5"/>
@@ -7501,7 +7500,7 @@
       <c r="C210" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="D210" s="45" t="s">
+      <c r="D210" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E210" s="5"/>
@@ -7516,7 +7515,7 @@
       <c r="C211" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="D211" s="45" t="s">
+      <c r="D211" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E211" s="5"/>
@@ -7531,7 +7530,7 @@
       <c r="C212" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="D212" s="45" t="s">
+      <c r="D212" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E212" s="5"/>
@@ -7561,7 +7560,7 @@
       <c r="C214" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="D214" s="45" t="s">
+      <c r="D214" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E214" s="5"/>
@@ -7576,7 +7575,7 @@
       <c r="C215" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="D215" s="45" t="s">
+      <c r="D215" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E215" s="5"/>
@@ -7591,7 +7590,7 @@
       <c r="C216" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="D216" s="45" t="s">
+      <c r="D216" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E216" s="5"/>
@@ -7606,7 +7605,7 @@
       <c r="C217" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D217" s="45" t="s">
+      <c r="D217" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E217" s="5"/>
@@ -7621,7 +7620,7 @@
       <c r="C218" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="D218" s="45" t="s">
+      <c r="D218" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E218" s="5"/>
@@ -7636,7 +7635,7 @@
       <c r="C219" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="D219" s="45" t="s">
+      <c r="D219" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E219" s="5"/>
@@ -7651,7 +7650,7 @@
       <c r="C220" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="D220" s="45" t="s">
+      <c r="D220" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E220" s="5"/>
@@ -7666,7 +7665,7 @@
       <c r="C221" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D221" s="45" t="s">
+      <c r="D221" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E221" s="5"/>
@@ -7681,7 +7680,7 @@
       <c r="C222" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D222" s="45" t="s">
+      <c r="D222" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E222" s="5"/>
@@ -7696,7 +7695,7 @@
       <c r="C223" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="D223" s="45" t="s">
+      <c r="D223" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E223" s="5"/>
@@ -7728,7 +7727,7 @@
       <c r="B226" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C226" s="45" t="s">
+      <c r="C226" s="44" t="s">
         <v>987</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -7743,7 +7742,7 @@
       <c r="B227" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C227" s="45" t="s">
+      <c r="C227" s="44" t="s">
         <v>988</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -7752,19 +7751,19 @@
       <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A228" s="46" t="s">
+      <c r="A228" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="20" t="s">
         <v>995</v>
       </c>
-      <c r="D228" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="E228" s="46"/>
+      <c r="D228" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
@@ -7868,12 +7867,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81CA3E9-4FB6-4E1E-A0F8-54A33ACEE253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="17" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="17" customWidth="1"/>
@@ -8315,7 +8314,7 @@
       <c r="D31" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="52" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -8332,7 +8331,7 @@
       <c r="D32" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -8347,7 +8346,7 @@
       <c r="D33" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
@@ -8362,7 +8361,7 @@
       <c r="D34" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E34" s="49"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
@@ -8797,7 +8796,7 @@
       <c r="D63" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="50" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8814,7 +8813,7 @@
       <c r="D64" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E64" s="42"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
@@ -8829,7 +8828,7 @@
       <c r="D65" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E65" s="42"/>
+      <c r="E65" s="50"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -8844,7 +8843,7 @@
       <c r="D66" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E66" s="42"/>
+      <c r="E66" s="50"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -8859,7 +8858,7 @@
       <c r="D67" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E67" s="42"/>
+      <c r="E67" s="50"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -8874,7 +8873,7 @@
       <c r="D68" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E68" s="42"/>
+      <c r="E68" s="50"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
@@ -8889,7 +8888,7 @@
       <c r="D69" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E69" s="42"/>
+      <c r="E69" s="50"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
@@ -8904,7 +8903,7 @@
       <c r="D70" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E70" s="42"/>
+      <c r="E70" s="50"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
@@ -8919,7 +8918,7 @@
       <c r="D71" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E71" s="42"/>
+      <c r="E71" s="50"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
@@ -8934,7 +8933,7 @@
       <c r="D72" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="50"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
@@ -8949,7 +8948,7 @@
       <c r="D73" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E73" s="42"/>
+      <c r="E73" s="50"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
@@ -8964,7 +8963,7 @@
       <c r="D74" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" s="50"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
@@ -8979,7 +8978,7 @@
       <c r="D75" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E75" s="42"/>
+      <c r="E75" s="50"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -8994,7 +8993,7 @@
       <c r="D76" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E76" s="42"/>
+      <c r="E76" s="50"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
@@ -9009,7 +9008,7 @@
       <c r="D77" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E77" s="42"/>
+      <c r="E77" s="50"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
@@ -9024,7 +9023,7 @@
       <c r="D78" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E78" s="42"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
@@ -9039,7 +9038,7 @@
       <c r="D79" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E79" s="42"/>
+      <c r="E79" s="50"/>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
@@ -9054,7 +9053,7 @@
       <c r="D80" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E80" s="42"/>
+      <c r="E80" s="50"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
@@ -9069,7 +9068,7 @@
       <c r="D81" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="50"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
@@ -9084,7 +9083,7 @@
       <c r="D82" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E82" s="42"/>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
@@ -9099,7 +9098,7 @@
       <c r="D83" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E83" s="42"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -9114,7 +9113,7 @@
       <c r="D84" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E84" s="42"/>
+      <c r="E84" s="50"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
@@ -9129,7 +9128,7 @@
       <c r="D85" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
@@ -9144,7 +9143,7 @@
       <c r="D86" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E86" s="42"/>
+      <c r="E86" s="50"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
@@ -9159,7 +9158,7 @@
       <c r="D87" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E87" s="42"/>
+      <c r="E87" s="50"/>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
@@ -9189,7 +9188,7 @@
       <c r="D89" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="50" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9206,7 +9205,7 @@
       <c r="D90" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="50"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
@@ -9221,7 +9220,7 @@
       <c r="D91" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E91" s="42"/>
+      <c r="E91" s="50"/>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -9236,7 +9235,7 @@
       <c r="D92" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="50"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
@@ -9251,7 +9250,7 @@
       <c r="D93" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="50"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
@@ -9266,7 +9265,7 @@
       <c r="D94" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="50"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
@@ -9281,7 +9280,7 @@
       <c r="D95" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="50"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
@@ -9296,7 +9295,7 @@
       <c r="D96" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E96" s="42"/>
+      <c r="E96" s="50"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
@@ -9311,7 +9310,7 @@
       <c r="D97" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E97" s="42"/>
+      <c r="E97" s="50"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
@@ -9326,7 +9325,7 @@
       <c r="D98" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E98" s="42"/>
+      <c r="E98" s="50"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
@@ -9341,7 +9340,7 @@
       <c r="D99" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="50" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9358,7 +9357,7 @@
       <c r="D100" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E100" s="42"/>
+      <c r="E100" s="50"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
@@ -9373,7 +9372,7 @@
       <c r="D101" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E101" s="42"/>
+      <c r="E101" s="50"/>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
@@ -9388,7 +9387,7 @@
       <c r="D102" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E102" s="42"/>
+      <c r="E102" s="50"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
@@ -9403,7 +9402,7 @@
       <c r="D103" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E103" s="42"/>
+      <c r="E103" s="50"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
@@ -9418,7 +9417,7 @@
       <c r="D104" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E104" s="42"/>
+      <c r="E104" s="50"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
@@ -9433,7 +9432,7 @@
       <c r="D105" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E105" s="42"/>
+      <c r="E105" s="50"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
@@ -9448,7 +9447,7 @@
       <c r="D106" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E106" s="42"/>
+      <c r="E106" s="50"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
@@ -9463,7 +9462,7 @@
       <c r="D107" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E107" s="42"/>
+      <c r="E107" s="50"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
@@ -9478,7 +9477,7 @@
       <c r="D108" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E108" s="42"/>
+      <c r="E108" s="50"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
@@ -9493,7 +9492,7 @@
       <c r="D109" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E109" s="42"/>
+      <c r="E109" s="50"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
@@ -9523,7 +9522,7 @@
       <c r="D111" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="50" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9540,7 +9539,7 @@
       <c r="D112" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E112" s="42"/>
+      <c r="E112" s="50"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
@@ -9555,7 +9554,7 @@
       <c r="D113" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E113" s="42"/>
+      <c r="E113" s="50"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
@@ -9570,7 +9569,7 @@
       <c r="D114" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E114" s="42"/>
+      <c r="E114" s="50"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -9585,7 +9584,7 @@
       <c r="D115" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E115" s="42"/>
+      <c r="E115" s="50"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
@@ -9600,7 +9599,7 @@
       <c r="D116" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E116" s="42"/>
+      <c r="E116" s="50"/>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
@@ -9615,7 +9614,7 @@
       <c r="D117" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E117" s="42"/>
+      <c r="E117" s="50"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
@@ -9630,7 +9629,7 @@
       <c r="D118" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E118" s="42"/>
+      <c r="E118" s="50"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
@@ -11752,7 +11751,7 @@
       <c r="D266" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E266" s="42" t="s">
+      <c r="E266" s="50" t="s">
         <v>395</v>
       </c>
     </row>
@@ -11769,7 +11768,7 @@
       <c r="D267" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E267" s="42"/>
+      <c r="E267" s="50"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="22" t="s">
@@ -11784,7 +11783,7 @@
       <c r="D268" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E268" s="42"/>
+      <c r="E268" s="50"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="22" t="s">
@@ -11799,7 +11798,7 @@
       <c r="D269" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="E269" s="42"/>
+      <c r="E269" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11817,14 +11816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67698E6-778D-440B-8BBA-EE1102F63405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -11873,7 +11872,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>1132</v>
       </c>
       <c r="B7" t="s">
@@ -11890,7 +11889,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>1134</v>
       </c>
       <c r="B8" t="s">
@@ -11902,12 +11901,12 @@
       <c r="F8" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="48" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>1137</v>
       </c>
       <c r="B9" t="s">
@@ -11936,7 +11935,7 @@
       <c r="F10" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="48" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -11985,7 +11984,7 @@
       <c r="F15" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="48" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -11993,7 +11992,7 @@
       <c r="F16" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="48" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -12009,7 +12008,7 @@
       <c r="F18" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="48" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -12017,7 +12016,7 @@
       <c r="F19" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="48" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -12049,7 +12048,7 @@
       <c r="F23" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="48" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -12057,7 +12056,7 @@
       <c r="F24" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="48" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -12097,7 +12096,7 @@
       <c r="F29" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="48" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -12129,7 +12128,7 @@
       <c r="F33" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="48" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -12137,7 +12136,7 @@
       <c r="F34" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="48" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -12153,12 +12152,12 @@
       <c r="F36" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="49" t="s">
         <v>1195</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:G36">
+  <sortState ref="F7:G36">
     <sortCondition ref="F7:F36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12166,14 +12165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DBB0D9-90E7-4994-8EB6-B97BF54C6DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" style="11" customWidth="1"/>
@@ -13179,7 +13178,7 @@
       <c r="A76" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="46" t="s">
         <v>1070</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -13193,7 +13192,7 @@
       <c r="A77" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="46" t="s">
         <v>1071</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -13207,7 +13206,7 @@
       <c r="A78" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="46" t="s">
         <v>1072</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -13221,7 +13220,7 @@
       <c r="A79" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="46" t="s">
         <v>1073</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -13235,7 +13234,7 @@
       <c r="A80" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="46" t="s">
         <v>1074</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -13249,7 +13248,7 @@
       <c r="A81" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="46" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -13257,7 +13256,7 @@
       <c r="A82" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="46" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -13265,7 +13264,7 @@
       <c r="A83" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="46" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -13273,7 +13272,7 @@
       <c r="A84" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="46" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -13281,7 +13280,7 @@
       <c r="A85" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="46" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -13289,7 +13288,7 @@
       <c r="A86" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="46" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -13297,7 +13296,7 @@
       <c r="A87" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="46" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -13305,7 +13304,7 @@
       <c r="A88" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="46" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -13313,7 +13312,7 @@
       <c r="A89" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="46" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -13321,7 +13320,7 @@
       <c r="A90" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -13329,7 +13328,7 @@
       <c r="A91" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="46" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -13337,7 +13336,7 @@
       <c r="A92" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="46" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -13345,7 +13344,7 @@
       <c r="A93" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="46" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -13353,7 +13352,7 @@
       <c r="A94" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="46" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -13361,7 +13360,7 @@
       <c r="A95" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="46" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -13369,7 +13368,7 @@
       <c r="A96" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="46" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -13377,7 +13376,7 @@
       <c r="A97" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="46" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -13385,7 +13384,7 @@
       <c r="A98" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="46" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -13393,7 +13392,7 @@
       <c r="A99" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="46" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -13401,7 +13400,7 @@
       <c r="A100" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="46" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -13409,7 +13408,7 @@
       <c r="A101" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="46" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -13417,7 +13416,7 @@
       <c r="A102" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="46" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -13425,7 +13424,7 @@
       <c r="A103" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="46" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -13433,7 +13432,7 @@
       <c r="A104" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="46" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -13441,7 +13440,7 @@
       <c r="A105" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="46" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -13449,7 +13448,7 @@
       <c r="A106" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="46" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -13457,7 +13456,7 @@
       <c r="A107" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="46" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -13465,7 +13464,7 @@
       <c r="A108" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="46" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -13473,7 +13472,7 @@
       <c r="A109" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="46" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -13481,7 +13480,7 @@
       <c r="A110" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="46" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -13489,7 +13488,7 @@
       <c r="A111" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="46" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -13497,7 +13496,7 @@
       <c r="A112" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="46" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -13505,7 +13504,7 @@
       <c r="A113" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="46" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -13513,7 +13512,7 @@
       <c r="A114" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="46" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -13521,7 +13520,7 @@
       <c r="A115" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="46" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -13529,7 +13528,7 @@
       <c r="A116" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="46" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -13537,7 +13536,7 @@
       <c r="A117" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="46" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -13545,7 +13544,7 @@
       <c r="A118" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="B118" s="46" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -13553,7 +13552,7 @@
       <c r="A119" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="46" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -13561,7 +13560,7 @@
       <c r="A120" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="46" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -13569,7 +13568,7 @@
       <c r="A121" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="46" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -13577,7 +13576,7 @@
       <c r="A122" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="46" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -13585,7 +13584,7 @@
       <c r="A123" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="B123" s="50" t="s">
+      <c r="B123" s="46" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -13593,7 +13592,7 @@
       <c r="A124" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="B124" s="50" t="s">
+      <c r="B124" s="46" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -13601,7 +13600,7 @@
       <c r="A125" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="46" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -13609,7 +13608,7 @@
       <c r="A126" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="46" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -13617,7 +13616,7 @@
       <c r="A127" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="46" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -13625,7 +13624,7 @@
       <c r="A128" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="B128" s="50" t="s">
+      <c r="B128" s="46" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -13633,7 +13632,7 @@
       <c r="A129" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="46" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -13641,7 +13640,7 @@
       <c r="A130" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B130" s="46" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -13649,7 +13648,7 @@
       <c r="A131" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="46" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -13657,7 +13656,7 @@
       <c r="A132" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="46" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -13665,7 +13664,7 @@
       <c r="A133" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="46" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -13673,7 +13672,7 @@
       <c r="A134" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="46" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -13681,7 +13680,7 @@
       <c r="A135" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="B135" s="50" t="s">
+      <c r="B135" s="46" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -13689,7 +13688,7 @@
       <c r="A136" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="B136" s="46" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -13700,21 +13699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F6D7AC6201CDF14788084638BE7A5EB1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fae216f1fcaf3f22e6db3e41565b4f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa8790ba-f795-4945-a8aa-63b0628444c1" xmlns:ns4="6450c495-9c27-4b0e-9a15-84d6e7f1d4a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b94c67273af8aeb95eeb83b3ca10129d" ns3:_="" ns4:_="">
     <xsd:import namespace="aa8790ba-f795-4945-a8aa-63b0628444c1"/>
@@ -13931,24 +13915,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879E7409-A638-49C1-806C-3EECA2BD0EF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4B9617-4C2F-4B9B-AF24-159C66D96442}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE39A4F-A91B-44C4-9570-DEEB884F1240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13965,4 +13947,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F4B9617-4C2F-4B9B-AF24-159C66D96442}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879E7409-A638-49C1-806C-3EECA2BD0EF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>